--- a/outputs/BestModels_MAPE.xlsx
+++ b/outputs/BestModels_MAPE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sasoffice365-my.sharepoint.com/personal/miguelangel_hidalgo_sas_com/Documents/Desktop/Capstone/Plots/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihida\OneDrive - SAS\Desktop\Capstone\Plots\Models\Final Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC10485A799D772C5BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95B06AB5-8EDB-4B96-AF1F-4F4165E7ADA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32103ED-8578-4245-A1F8-E58D9589F9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="27">
   <si>
     <t>CCAA</t>
   </si>
@@ -120,12 +120,6 @@
   </si>
   <si>
     <t>España</t>
-  </si>
-  <si>
-    <t>Linear R</t>
-  </si>
-  <si>
-    <t>ESM</t>
   </si>
 </sst>
 </file>
@@ -458,17 +452,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -496,7 +488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -510,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -524,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -538,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -552,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -566,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -580,7 +572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -594,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -608,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -622,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -636,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -650,7 +642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -664,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -672,13 +664,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>6.1073837343999999</v>
+        <v>16.95</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -692,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -706,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -720,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -734,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -748,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -762,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -776,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -790,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -804,7 +796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -818,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -832,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -846,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -860,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -874,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -888,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -902,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -916,7 +908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -930,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -944,7 +936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -958,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -972,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -986,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1042,7 +1034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1056,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1070,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1112,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1162,13 +1154,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="1">
-        <v>15.022903514999999</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -1210,7 +1202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -1224,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -1266,7 +1258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1274,13 +1266,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="1">
-        <v>7.7501017260999996</v>
+        <v>12.93</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1294,7 +1286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1308,7 +1300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -1322,7 +1314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -1336,7 +1328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -1364,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -1378,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -1392,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -1406,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -1420,7 +1412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -1462,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>25</v>
       </c>
